--- a/library/objects.xlsx
+++ b/library/objects.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Raju123</t>
+  </si>
+  <si>
+    <t>411fnhfghjf15</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -362,8 +365,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>41115</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
